--- a/TEMOA_Europe_Results/1_Results_bau/_2_Primary energy supply.xlsx
+++ b/TEMOA_Europe_Results/1_Results_bau/_2_Primary energy supply.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="126">
   <si>
     <t>tech</t>
   </si>
@@ -191,9 +191,6 @@
     <t>UPS_TDL_POT</t>
   </si>
   <si>
-    <t>UPS_WAV_POT</t>
-  </si>
-  <si>
     <t>UPS_WIN_ON_POT</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
   </si>
   <si>
     <t>RNW_POT_TDL</t>
-  </si>
-  <si>
-    <t>RNW_POT_WAV</t>
   </si>
   <si>
     <t>RNW_POT_WIN_ON</t>
@@ -804,7 +798,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -853,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2">
         <v>7384.745999999999</v>
@@ -862,7 +856,7 @@
         <v>6027.236000000001</v>
       </c>
       <c r="F2">
-        <v>5810.872800000002</v>
+        <v>5810.8728</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -891,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -900,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>385.9711999999981</v>
+        <v>385.971199999999</v>
       </c>
       <c r="G3">
         <v>5887.002</v>
@@ -929,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -944,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>331.9121999999979</v>
+        <v>331.9121999999988</v>
       </c>
       <c r="I4">
         <v>5313.019</v>
@@ -967,7 +961,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -988,13 +982,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3003.157199999999</v>
+        <v>3003.1572</v>
       </c>
       <c r="K5">
         <v>4795</v>
       </c>
       <c r="L5">
-        <v>865.5521000000009</v>
+        <v>865.5521000000003</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1005,7 +999,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1043,7 +1037,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1070,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>830.9194999999991</v>
+        <v>830.9194999999995</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1081,7 +1075,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8">
         <v>95.66000000000001</v>
@@ -1119,7 +1113,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9">
         <v>95.66000000000001</v>
@@ -1157,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10">
         <v>47.83000000000001</v>
@@ -1195,7 +1189,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1204,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.002999999991061486</v>
+        <v>0.00300000001607259</v>
       </c>
       <c r="G11">
-        <v>194.5056000000089</v>
+        <v>194.5055999999839</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1233,7 +1227,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1271,7 +1265,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1309,7 +1303,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14">
         <v>3335.857</v>
@@ -1347,7 +1341,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15">
         <v>3558.246999999999</v>
@@ -1385,7 +1379,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16">
         <v>2001.514</v>
@@ -1423,7 +1417,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17">
         <v>735.285</v>
@@ -1461,7 +1455,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18">
         <v>980.3810000000001</v>
@@ -1499,7 +1493,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19">
         <v>727.9470000000014</v>
@@ -1537,7 +1531,7 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20">
         <v>3638.04</v>
@@ -1575,7 +1569,7 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <v>3280.326</v>
@@ -1599,7 +1593,7 @@
         <v>611.027</v>
       </c>
       <c r="K21">
-        <v>125.6691999999984</v>
+        <v>125.6691999999992</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1613,7 +1607,7 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1637,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>363.1528000000015</v>
+        <v>363.1528000000008</v>
       </c>
       <c r="L22">
-        <v>181.3218018049304</v>
+        <v>178.3188197302333</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1651,34 +1645,34 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23">
-        <v>10579.16162513792</v>
+        <v>10579.16162513793</v>
       </c>
       <c r="E23">
-        <v>9711.157223369246</v>
+        <v>9711.15722336925</v>
       </c>
       <c r="F23">
         <v>8293.784107105919</v>
       </c>
       <c r="G23">
-        <v>8932.90457806735</v>
+        <v>8932.904578067353</v>
       </c>
       <c r="H23">
         <v>7781.195436459639</v>
       </c>
       <c r="I23">
-        <v>6629.48629485192</v>
+        <v>6629.486294851919</v>
       </c>
       <c r="J23">
-        <v>5477.777153244204</v>
+        <v>5477.777153244206</v>
       </c>
       <c r="K23">
         <v>4326.068011636487</v>
       </c>
       <c r="L23">
-        <v>3174.358870028771</v>
+        <v>3174.35887002877</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1689,7 +1683,7 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24">
         <v>467.8900000000004</v>
@@ -1713,10 +1707,10 @@
         <v>501.2679999999999</v>
       </c>
       <c r="K24">
-        <v>360.815994641899</v>
+        <v>357.6474398174153</v>
       </c>
       <c r="L24">
-        <v>58.13456615633132</v>
+        <v>58.31996776700912</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1727,7 +1721,7 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>172.7</v>
@@ -1736,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>71.21693174204636</v>
+        <v>67.91573794186611</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1765,7 +1759,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26">
         <v>346.6</v>
@@ -1777,16 +1771,16 @@
         <v>603.2</v>
       </c>
       <c r="G26">
-        <v>742.8499999999999</v>
+        <v>742.85</v>
       </c>
       <c r="H26">
-        <v>214.5964275780858</v>
+        <v>514.5926859567583</v>
       </c>
       <c r="I26">
-        <v>392.6501252346987</v>
+        <v>409.4197170381067</v>
       </c>
       <c r="J26">
-        <v>221.0115787865264</v>
+        <v>273.3111899378931</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1803,34 +1797,34 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>762.7765775185203</v>
+        <v>762.7765775185195</v>
       </c>
       <c r="F27">
-        <v>1289.617068257952</v>
+        <v>1292.918262058133</v>
       </c>
       <c r="G27">
-        <v>994.3142877355914</v>
+        <v>931.6157255804251</v>
       </c>
       <c r="H27">
-        <v>664.9854248737565</v>
+        <v>329.6667214828208</v>
       </c>
       <c r="I27">
-        <v>339.0969273676705</v>
+        <v>295.4343210678279</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>300.996721570325</v>
+        <v>191.5014187046833</v>
       </c>
       <c r="L27">
-        <v>4.053500386353786E-07</v>
+        <v>8.498128000660791E-07</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1841,7 +1835,7 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1850,7 +1844,7 @@
         <v>133.7</v>
       </c>
       <c r="F28">
-        <v>267.4</v>
+        <v>267.3999999999999</v>
       </c>
       <c r="G28">
         <v>292.5</v>
@@ -1879,7 +1873,7 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1891,7 +1885,7 @@
         <v>91.3</v>
       </c>
       <c r="G29">
-        <v>93.95</v>
+        <v>93.94999999999999</v>
       </c>
       <c r="H29">
         <v>96.59999999999999</v>
@@ -1917,7 +1911,7 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30">
         <v>1109.8</v>
@@ -1955,16 +1949,16 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31">
         <v>533.3</v>
       </c>
       <c r="E31">
-        <v>421.7499999999999</v>
+        <v>421.75</v>
       </c>
       <c r="F31">
-        <v>310.2</v>
+        <v>310.1999999999999</v>
       </c>
       <c r="G31">
         <v>315.4</v>
@@ -1993,7 +1987,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32">
         <v>110.6</v>
@@ -2031,7 +2025,7 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33">
         <v>156.2</v>
@@ -2069,7 +2063,7 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34">
         <v>977.3</v>
@@ -2087,16 +2081,16 @@
         <v>946.9</v>
       </c>
       <c r="I34">
-        <v>945.4</v>
+        <v>945.3999999999999</v>
       </c>
       <c r="J34">
         <v>943.9000000000001</v>
       </c>
       <c r="K34">
-        <v>923.1500000000001</v>
+        <v>923.1499999999999</v>
       </c>
       <c r="L34">
-        <v>902.4</v>
+        <v>902.3999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2107,34 +2101,34 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35">
-        <v>424.3</v>
+        <v>424.3000000000001</v>
       </c>
       <c r="E35">
         <v>447.65</v>
       </c>
       <c r="F35">
-        <v>471.0000000000001</v>
+        <v>471</v>
       </c>
       <c r="G35">
         <v>517.9999999999999</v>
       </c>
       <c r="H35">
-        <v>565</v>
+        <v>564.9999999999999</v>
       </c>
       <c r="I35">
-        <v>610.1499999999999</v>
+        <v>610.15</v>
       </c>
       <c r="J35">
-        <v>655.3000000000002</v>
+        <v>655.2999999999998</v>
       </c>
       <c r="K35">
-        <v>707.0999999999998</v>
+        <v>707.0999999999999</v>
       </c>
       <c r="L35">
-        <v>758.9000000000001</v>
+        <v>758.9</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2145,7 +2139,7 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36">
         <v>24.1</v>
@@ -2160,7 +2154,7 @@
         <v>31.35</v>
       </c>
       <c r="H36">
-        <v>34.9</v>
+        <v>34.89999999999999</v>
       </c>
       <c r="I36">
         <v>38.95</v>
@@ -2172,7 +2166,7 @@
         <v>48.3</v>
       </c>
       <c r="L36">
-        <v>53.59999999999999</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2183,7 +2177,7 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37">
         <v>1246</v>
@@ -2221,7 +2215,7 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D38">
         <v>26.9</v>
@@ -2230,10 +2224,10 @@
         <v>48.05</v>
       </c>
       <c r="F38">
-        <v>69.2</v>
+        <v>69.20000000000002</v>
       </c>
       <c r="G38">
-        <v>71.40000000000002</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2259,10 +2253,10 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D39">
-        <v>215.3025151778243</v>
+        <v>215.3025151778208</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2271,13 +2265,13 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>369.4999</v>
+        <v>369.4998999999999</v>
       </c>
       <c r="H39">
-        <v>468.9992999999999</v>
+        <v>468.9993</v>
       </c>
       <c r="I39">
-        <v>555.4164</v>
+        <v>555.4163999999998</v>
       </c>
       <c r="J39">
         <v>641.8335</v>
@@ -2286,7 +2280,7 @@
         <v>728.2525249999999</v>
       </c>
       <c r="L39">
-        <v>814.6715499999999</v>
+        <v>814.67155</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2297,34 +2291,34 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40">
-        <v>87.38948482217872</v>
+        <v>87.38948482217877</v>
       </c>
       <c r="E40">
-        <v>78.01642248148033</v>
+        <v>78.01642248148035</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>80.44187487284032</v>
+        <v>80.44187487284024</v>
       </c>
       <c r="H40">
-        <v>144.6699353421482</v>
+        <v>144.0569640113433</v>
       </c>
       <c r="I40">
-        <v>55.31872825336636</v>
+        <v>55.05755101299401</v>
       </c>
       <c r="J40">
-        <v>49.74503769362313</v>
+        <v>49.48386045325093</v>
       </c>
       <c r="K40">
-        <v>73.79232304119493</v>
+        <v>73.79232304119486</v>
       </c>
       <c r="L40">
-        <v>85.60975234186623</v>
+        <v>85.60975234186621</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2335,10 +2329,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41">
-        <v>283</v>
+        <v>283.0000000000001</v>
       </c>
       <c r="E41">
         <v>283</v>
@@ -2350,19 +2344,19 @@
         <v>400</v>
       </c>
       <c r="H41">
-        <v>510.9239643754416</v>
+        <v>517</v>
       </c>
       <c r="I41">
-        <v>512.2606808500752</v>
+        <v>505.2581636791441</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>461.3823572100627</v>
+        <v>490.7236193164447</v>
       </c>
       <c r="L41">
-        <v>485.432687475733</v>
+        <v>479.3464565072388</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2373,7 +2367,7 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42">
         <v>2088.78</v>
@@ -2385,22 +2379,22 @@
         <v>2231.010000000002</v>
       </c>
       <c r="G42">
-        <v>2312.232100598818</v>
+        <v>2306.228777245645</v>
       </c>
       <c r="H42">
-        <v>2361.38603887918</v>
+        <v>2296.070675155011</v>
       </c>
       <c r="I42">
-        <v>2108.779065216645</v>
+        <v>2103.230129418851</v>
       </c>
       <c r="J42">
-        <v>1635.912499730548</v>
+        <v>1662.766974646737</v>
       </c>
       <c r="K42">
-        <v>1343.459120457855</v>
+        <v>1347.539484496766</v>
       </c>
       <c r="L42">
-        <v>1269.963552261177</v>
+        <v>1319.126272289518</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2411,16 +2405,16 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43">
-        <v>232.1341141646326</v>
+        <v>226.5083413557852</v>
       </c>
       <c r="E43">
-        <v>271.1456134792813</v>
+        <v>269.3774493301237</v>
       </c>
       <c r="F43">
-        <v>245.3396792306298</v>
+        <v>277.6000302575125</v>
       </c>
       <c r="G43">
         <v>230</v>
@@ -2449,7 +2443,7 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44">
         <v>164.23</v>
@@ -2461,22 +2455,22 @@
         <v>583.6799999999999</v>
       </c>
       <c r="G44">
-        <v>1414.418209275783</v>
+        <v>1406.094709572</v>
       </c>
       <c r="H44">
-        <v>1996.59678670467</v>
+        <v>2124.162944419206</v>
       </c>
       <c r="I44">
-        <v>2802.638365493829</v>
+        <v>2788.43191555156</v>
       </c>
       <c r="J44">
-        <v>2695.926470614082</v>
+        <v>2656.518611890236</v>
       </c>
       <c r="K44">
-        <v>2744.673037734973</v>
+        <v>2804.018672292871</v>
       </c>
       <c r="L44">
-        <v>2821.641308051297</v>
+        <v>2688.69838426714</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2487,34 +2481,34 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45">
-        <v>258.9208858353674</v>
+        <v>264.5466586442147</v>
       </c>
       <c r="E45">
-        <v>590.3363865207189</v>
+        <v>592.1045506698767</v>
       </c>
       <c r="F45">
-        <v>907.0293207693701</v>
+        <v>874.7689697424879</v>
       </c>
       <c r="G45">
-        <v>907.0094773193709</v>
+        <v>896.5220669673656</v>
       </c>
       <c r="H45">
-        <v>906.8569812300856</v>
+        <v>896.3695708780795</v>
       </c>
       <c r="I45">
-        <v>905.9588749550094</v>
+        <v>895.4714646030038</v>
       </c>
       <c r="J45">
-        <v>904.1260650479421</v>
+        <v>893.6386546959369</v>
       </c>
       <c r="K45">
-        <v>904.1260650479425</v>
+        <v>893.6386546959369</v>
       </c>
       <c r="L45">
-        <v>904.1260650479423</v>
+        <v>893.6386546959369</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2525,34 +2519,34 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D46">
         <v>2.74</v>
       </c>
       <c r="E46">
-        <v>20.13</v>
+        <v>20.12999999999976</v>
       </c>
       <c r="F46">
         <v>20.46</v>
       </c>
       <c r="G46">
-        <v>20.83106956266571</v>
+        <v>17.38713216</v>
       </c>
       <c r="H46">
-        <v>20.19540681856813</v>
+        <v>17.38713216</v>
       </c>
       <c r="I46">
-        <v>20.84441342994111</v>
+        <v>14.57522588249026</v>
       </c>
       <c r="J46">
-        <v>12.02048357649657</v>
+        <v>7.328450574336687</v>
       </c>
       <c r="K46">
-        <v>11.96460809169657</v>
+        <v>4.238799245497202</v>
       </c>
       <c r="L46">
-        <v>0.1514903101946202</v>
+        <v>0.1409848416000033</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2563,22 +2557,22 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D47">
-        <v>1.647055573333333</v>
+        <v>1.72</v>
       </c>
       <c r="E47">
-        <v>1.697197813333333</v>
+        <v>1.76</v>
       </c>
       <c r="F47">
-        <v>1.765494569861635</v>
+        <v>1.85</v>
       </c>
       <c r="G47">
-        <v>6.739759968201257</v>
+        <v>7.794563904000002</v>
       </c>
       <c r="H47">
-        <v>0.7918058880000007</v>
+        <v>0.7881477120000008</v>
       </c>
       <c r="I47">
         <v>0.6042297600000007</v>
@@ -2601,34 +2595,34 @@
         <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48">
-        <v>0.07294442666666676</v>
+        <v>550.0799999999999</v>
       </c>
       <c r="E48">
-        <v>0.06280218666666673</v>
+        <v>983.0199999999999</v>
       </c>
       <c r="F48">
-        <v>0.08450543013836495</v>
+        <v>1530.69</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2446.83603936997</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>3044.924313962895</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3116.90328692239</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>3291.121341775226</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>3206.58453805248</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>3478.006985589041</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2639,34 +2633,34 @@
         <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D49">
-        <v>550.0799999999999</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>983.0199999999999</v>
+        <v>126.62</v>
       </c>
       <c r="F49">
-        <v>1530.69</v>
+        <v>259.5699999999999</v>
       </c>
       <c r="G49">
-        <v>2453.523701493425</v>
+        <v>971.9331803103521</v>
       </c>
       <c r="H49">
-        <v>3053.686704283176</v>
+        <v>2063.207114540748</v>
       </c>
       <c r="I49">
-        <v>3103.565185110881</v>
+        <v>2261.114934751126</v>
       </c>
       <c r="J49">
-        <v>3183.427562417467</v>
+        <v>3773.63741005377</v>
       </c>
       <c r="K49">
-        <v>3322.715267462607</v>
+        <v>4602.973682278328</v>
       </c>
       <c r="L49">
-        <v>3327.715060611517</v>
+        <v>5378.501160388675</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2677,34 +2671,34 @@
         <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>281.869</v>
       </c>
       <c r="E50">
-        <v>126.62</v>
+        <v>305.4943238549999</v>
       </c>
       <c r="F50">
-        <v>259.57</v>
+        <v>456.966</v>
       </c>
       <c r="G50">
-        <v>958.10466118968</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="H50">
-        <v>2066.862676723293</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="I50">
-        <v>2256.206964756357</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="J50">
-        <v>3927.903523100539</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="K50">
-        <v>4563.579632814826</v>
+        <v>994.9430000000001</v>
       </c>
       <c r="L50">
-        <v>5558.497015726375</v>
+        <v>994.9430000000001</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2715,34 +2709,34 @@
         <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D51">
-        <v>281.869</v>
+        <v>45.454</v>
       </c>
       <c r="E51">
-        <v>305.4943238549999</v>
+        <v>49.14117809999999</v>
       </c>
       <c r="F51">
-        <v>456.966</v>
+        <v>31.521</v>
       </c>
       <c r="G51">
-        <v>994.9430000000001</v>
+        <v>68.63</v>
       </c>
       <c r="H51">
-        <v>994.9430000000001</v>
+        <v>68.63</v>
       </c>
       <c r="I51">
-        <v>994.9430000000001</v>
+        <v>68.63</v>
       </c>
       <c r="J51">
-        <v>994.9430000000001</v>
+        <v>68.63</v>
       </c>
       <c r="K51">
-        <v>994.9430000000001</v>
+        <v>68.63</v>
       </c>
       <c r="L51">
-        <v>994.9430000000001</v>
+        <v>68.63</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2753,34 +2747,34 @@
         <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D52">
-        <v>45.454</v>
+        <v>573.5429999999999</v>
       </c>
       <c r="E52">
-        <v>49.14117809999999</v>
+        <v>622.4549225999999</v>
       </c>
       <c r="F52">
-        <v>31.521</v>
+        <v>397.7380000000001</v>
       </c>
       <c r="G52">
-        <v>68.63</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="H52">
-        <v>68.63</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="I52">
-        <v>68.63</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="J52">
-        <v>68.63</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="K52">
-        <v>68.63</v>
+        <v>865.9870000000001</v>
       </c>
       <c r="L52">
-        <v>68.63</v>
+        <v>865.9870000000001</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2791,34 +2785,34 @@
         <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D53">
-        <v>573.5430000000001</v>
+        <v>1121.453</v>
       </c>
       <c r="E53">
-        <v>622.4549225999999</v>
+        <v>1216.244157975</v>
       </c>
       <c r="F53">
-        <v>397.7380000000001</v>
+        <v>1166.519</v>
       </c>
       <c r="G53">
-        <v>865.9870000000001</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="H53">
-        <v>865.9870000000001</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="I53">
-        <v>865.9870000000001</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="J53">
-        <v>865.9870000000001</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="K53">
-        <v>865.9870000000001</v>
+        <v>2539.838999999999</v>
       </c>
       <c r="L53">
-        <v>865.9870000000001</v>
+        <v>2539.838999999999</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2829,34 +2823,34 @@
         <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D54">
-        <v>1121.453</v>
+        <v>513.1460000000001</v>
       </c>
       <c r="E54">
-        <v>1216.244157975</v>
+        <v>556.9333518000001</v>
       </c>
       <c r="F54">
-        <v>1166.519</v>
+        <v>533.7809999999999</v>
       </c>
       <c r="G54">
-        <v>2539.838999999999</v>
+        <v>1162.191</v>
       </c>
       <c r="H54">
-        <v>2539.838999999999</v>
+        <v>1162.191</v>
       </c>
       <c r="I54">
-        <v>2539.838999999999</v>
+        <v>1162.191</v>
       </c>
       <c r="J54">
-        <v>2539.838999999999</v>
+        <v>1162.191</v>
       </c>
       <c r="K54">
-        <v>2539.838999999999</v>
+        <v>1162.191</v>
       </c>
       <c r="L54">
-        <v>2539.838999999999</v>
+        <v>1162.191</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2867,34 +2861,34 @@
         <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D55">
-        <v>513.1460000000001</v>
+        <v>18141.907</v>
       </c>
       <c r="E55">
-        <v>556.9333518000001</v>
+        <v>17784.42636</v>
       </c>
       <c r="F55">
-        <v>533.7809999999999</v>
+        <v>18571.906</v>
       </c>
       <c r="G55">
-        <v>1162.191</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>1162.191</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>1162.191</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>1162.191</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>1162.191</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>1162.191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2905,22 +2899,22 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D56">
-        <v>18141.907</v>
+        <v>8810.888999999999</v>
       </c>
       <c r="E56">
-        <v>17784.42636</v>
+        <v>9476.640240928253</v>
       </c>
       <c r="F56">
-        <v>18571.906</v>
+        <v>6480.449</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>9237.122580230354</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>3848.094362409128</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2943,34 +2937,34 @@
         <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D57">
-        <v>8810.888999999999</v>
+        <v>7942.354000000001</v>
       </c>
       <c r="E57">
-        <v>9476.640240928249</v>
+        <v>8599.706167500002</v>
       </c>
       <c r="F57">
-        <v>6480.449</v>
+        <v>6448.197</v>
       </c>
       <c r="G57">
-        <v>9277.110429068274</v>
+        <v>14039.533</v>
       </c>
       <c r="H57">
-        <v>4014.558382542737</v>
+        <v>14039.533</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>13547.51079980865</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>10446.54563798427</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>9563.587330718636</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>6718.258400817318</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2981,34 +2975,34 @@
         <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D58">
-        <v>7942.354000000001</v>
+        <v>5.683</v>
       </c>
       <c r="E58">
-        <v>8599.706167500002</v>
+        <v>6.142647262499999</v>
       </c>
       <c r="F58">
-        <v>6448.197</v>
+        <v>3.941</v>
       </c>
       <c r="G58">
-        <v>14039.533</v>
+        <v>8.581000000000001</v>
       </c>
       <c r="H58">
-        <v>14039.533</v>
+        <v>8.581000000000001</v>
       </c>
       <c r="I58">
-        <v>13707.44797626242</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>10601.25792158094</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>9704.885080721633</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>6665.867319872346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3019,22 +3013,22 @@
         <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D59">
-        <v>5.683000000000001</v>
+        <v>7.582</v>
       </c>
       <c r="E59">
-        <v>6.142647262499999</v>
+        <v>8.23114733175</v>
       </c>
       <c r="F59">
-        <v>3.941</v>
+        <v>15.765</v>
       </c>
       <c r="G59">
-        <v>8.581000000000001</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>8.581000000000001</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -3057,22 +3051,22 @@
         <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D60">
-        <v>7.582</v>
+        <v>346.636</v>
       </c>
       <c r="E60">
-        <v>8.23114733175</v>
+        <v>375.5205026475</v>
       </c>
       <c r="F60">
-        <v>15.765</v>
+        <v>240.384</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>523.383</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>523.383</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3095,31 +3089,31 @@
         <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D61">
-        <v>346.636</v>
+        <v>17983.926</v>
       </c>
       <c r="E61">
-        <v>375.5205026475</v>
+        <v>19356.834</v>
       </c>
       <c r="F61">
-        <v>240.384</v>
+        <v>17799.56</v>
       </c>
       <c r="G61">
-        <v>523.383</v>
+        <v>12617.23267724158</v>
       </c>
       <c r="H61">
-        <v>523.383</v>
+        <v>7595.109903918673</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>4210.046517031167</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>2192.47304154331</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>969.9049360033171</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -3133,34 +3127,34 @@
         <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D62">
-        <v>17983.926</v>
+        <v>1649.5118</v>
       </c>
       <c r="E62">
-        <v>19356.834</v>
+        <v>1801.2946</v>
       </c>
       <c r="F62">
-        <v>17799.56000000001</v>
+        <v>1420.868</v>
       </c>
       <c r="G62">
-        <v>12634.37032674355</v>
+        <v>2099.648999999999</v>
       </c>
       <c r="H62">
-        <v>7647.677489224022</v>
+        <v>2778.43</v>
       </c>
       <c r="I62">
-        <v>4245.154677716139</v>
+        <v>2778.43</v>
       </c>
       <c r="J62">
-        <v>2213.570171124672</v>
+        <v>2778.429999999999</v>
       </c>
       <c r="K62">
-        <v>978.9239413226576</v>
+        <v>2778.429999999999</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>2778.43</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3171,34 +3165,34 @@
         <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D63">
-        <v>1649.5118</v>
+        <v>13316.5268</v>
       </c>
       <c r="E63">
-        <v>1801.2946</v>
+        <v>14460.199</v>
       </c>
       <c r="F63">
-        <v>1420.868</v>
+        <v>13473.857</v>
       </c>
       <c r="G63">
-        <v>2099.649</v>
+        <v>6791.875795</v>
       </c>
       <c r="H63">
-        <v>2778.43</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>2778.43</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>2778.43</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>2778.43</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>2778.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3209,34 +3203,34 @@
         <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D64">
-        <v>13316.52679999999</v>
+        <v>25.25</v>
       </c>
       <c r="E64">
-        <v>14460.199</v>
+        <v>27.573</v>
       </c>
       <c r="F64">
-        <v>13473.857</v>
+        <v>278.5463999999999</v>
       </c>
       <c r="G64">
-        <v>6791.875794999999</v>
+        <v>493.7868000000001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>703.4000000000002</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>703.3999999999999</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>703.4</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>703.4000000000003</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>243.3915377407691</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3247,34 +3241,34 @@
         <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D65">
-        <v>25.25</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>27.573</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>278.5463999999999</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>493.7868</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>703.4</v>
+        <v>386.87</v>
       </c>
       <c r="I65">
-        <v>703.4</v>
+        <v>466.0024999999997</v>
       </c>
       <c r="J65">
-        <v>703.4</v>
+        <v>545.135</v>
       </c>
       <c r="K65">
-        <v>703.4000000000016</v>
+        <v>605.4964798553607</v>
       </c>
       <c r="L65">
-        <v>257.2063308598716</v>
+        <v>449.1167124453227</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3285,34 +3279,34 @@
         <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>8181.323999999999</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>8584.531999999999</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>7355.054999999999</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>5189.111026529534</v>
       </c>
       <c r="H66">
-        <v>386.8700000000002</v>
+        <v>2469.642631578948</v>
       </c>
       <c r="I66">
-        <v>466.0024999999994</v>
+        <v>1734.073353658536</v>
       </c>
       <c r="J66">
-        <v>545.1350000000004</v>
+        <v>1150.328551568335</v>
       </c>
       <c r="K66">
-        <v>545.1350000000002</v>
+        <v>544.9650180308749</v>
       </c>
       <c r="L66">
-        <v>387.1283095933219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3323,34 +3317,34 @@
         <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D67">
-        <v>8181.324</v>
+        <v>1573.6248</v>
       </c>
       <c r="E67">
-        <v>8584.532000000001</v>
+        <v>538.9857</v>
       </c>
       <c r="F67">
-        <v>7355.054999999998</v>
+        <v>1000.5732</v>
       </c>
       <c r="G67">
-        <v>5168.351635015076</v>
+        <v>2021.36</v>
       </c>
       <c r="H67">
-        <v>2469.642631578947</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1734.073353658536</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>1142.696141681963</v>
+        <v>456.9427115011244</v>
       </c>
       <c r="K67">
-        <v>536.6244046904757</v>
+        <v>498.6238026283479</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>2021.36</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3361,34 +3355,34 @@
         <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D68">
-        <v>1573.6248</v>
+        <v>1380.8817</v>
       </c>
       <c r="E68">
-        <v>538.9857</v>
+        <v>911.5425</v>
       </c>
       <c r="F68">
-        <v>1000.5732</v>
+        <v>978.6645</v>
       </c>
       <c r="G68">
-        <v>2021.36</v>
+        <v>701.2541335689127</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1357.425</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1357.425000000001</v>
       </c>
       <c r="J68">
-        <v>400.9717056677362</v>
+        <v>1357.425</v>
       </c>
       <c r="K68">
-        <v>428.3156734841634</v>
+        <v>1357.425</v>
       </c>
       <c r="L68">
-        <v>2021.36</v>
+        <v>1357.425</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3399,34 +3393,34 @@
         <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D69">
-        <v>1380.8817</v>
+        <v>291.1194</v>
       </c>
       <c r="E69">
-        <v>911.5425</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>978.6644999999999</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>652.8155533685099</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>1357.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3437,16 +3431,16 @@
         <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D70">
-        <v>291.1193999999999</v>
+        <v>207.4545</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>98.88120000000001</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>180.1701</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3464,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>3.2076604361921</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3475,34 +3469,34 @@
         <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D71">
-        <v>207.4545</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>98.88119999999999</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>180.1701</v>
+        <v>827.5509</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2594.41</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2594.41</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>2594.41</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>2594.41</v>
       </c>
       <c r="L71">
-        <v>81.04017383956224</v>
+        <v>2594.41</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3513,7 +3507,7 @@
         <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3522,25 +3516,25 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>827.5509</v>
+        <v>562.4288999999999</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>2594.41</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>2594.41</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>2594.41</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>2594.410000000001</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>2594.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3551,34 +3545,34 @@
         <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>616.5158730000002</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>609.5027680000001</v>
       </c>
       <c r="F73">
-        <v>562.4289</v>
+        <v>88.207576</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>132.311364</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3589,34 +3583,34 @@
         <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D74">
-        <v>616.5158730000002</v>
+        <v>586.5879179999999</v>
       </c>
       <c r="E74">
-        <v>609.5027680000001</v>
+        <v>827.1823280000001</v>
       </c>
       <c r="F74">
-        <v>88.207576</v>
+        <v>579.1019119999999</v>
       </c>
       <c r="G74">
-        <v>132.311364</v>
+        <v>868.6528680000001</v>
       </c>
       <c r="H74">
-        <v>132.311364</v>
+        <v>868.6528680000001</v>
       </c>
       <c r="I74">
-        <v>132.311364</v>
+        <v>867.5306173309657</v>
       </c>
       <c r="J74">
-        <v>132.311364</v>
+        <v>868.6528680000001</v>
       </c>
       <c r="K74">
-        <v>132.311364</v>
+        <v>868.6528680000001</v>
       </c>
       <c r="L74">
-        <v>132.311364</v>
+        <v>868.6528680000001</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3627,34 +3621,34 @@
         <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D75">
-        <v>586.5879180000001</v>
+        <v>23.942364</v>
       </c>
       <c r="E75">
-        <v>827.1823280000001</v>
+        <v>37.31649600000001</v>
       </c>
       <c r="F75">
-        <v>579.1019119999999</v>
+        <v>76.70224</v>
       </c>
       <c r="G75">
-        <v>868.6528680000001</v>
+        <v>115.05336</v>
       </c>
       <c r="H75">
-        <v>868.6528680000001</v>
+        <v>115.05336</v>
       </c>
       <c r="I75">
-        <v>868.6528680000001</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>868.6528680000001</v>
+        <v>115.05336</v>
       </c>
       <c r="K75">
-        <v>868.6528680000001</v>
+        <v>115.05336</v>
       </c>
       <c r="L75">
-        <v>868.6528680000001</v>
+        <v>115.05336</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3665,34 +3659,34 @@
         <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D76">
-        <v>23.942364</v>
+        <v>161.610957</v>
       </c>
       <c r="E76">
-        <v>37.31649600000001</v>
+        <v>118.168904</v>
       </c>
       <c r="F76">
-        <v>76.70224</v>
+        <v>99.712912</v>
       </c>
       <c r="G76">
-        <v>115.05336</v>
+        <v>149.569368</v>
       </c>
       <c r="H76">
-        <v>115.05336</v>
+        <v>149.569368</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>149.569368</v>
       </c>
       <c r="J76">
-        <v>115.05336</v>
+        <v>149.569368</v>
       </c>
       <c r="K76">
-        <v>115.05336</v>
+        <v>149.569368</v>
       </c>
       <c r="L76">
-        <v>115.05336</v>
+        <v>149.569368</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3703,34 +3697,34 @@
         <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D77">
-        <v>161.610957</v>
+        <v>389.063415</v>
       </c>
       <c r="E77">
-        <v>118.168904</v>
+        <v>310.9708000000001</v>
       </c>
       <c r="F77">
-        <v>99.712912</v>
+        <v>3.835112</v>
       </c>
       <c r="G77">
-        <v>149.569368</v>
+        <v>5.752668</v>
       </c>
       <c r="H77">
-        <v>149.569368</v>
+        <v>5.752668</v>
       </c>
       <c r="I77">
-        <v>149.569368</v>
+        <v>5.752668</v>
       </c>
       <c r="J77">
-        <v>149.569368</v>
+        <v>5.752668</v>
       </c>
       <c r="K77">
-        <v>149.569368</v>
+        <v>5.752668</v>
       </c>
       <c r="L77">
-        <v>149.569368</v>
+        <v>5.752668</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3741,34 +3735,34 @@
         <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D78">
-        <v>389.063415</v>
+        <v>161.610957</v>
       </c>
       <c r="E78">
-        <v>310.9708000000001</v>
+        <v>18.658248</v>
       </c>
       <c r="F78">
-        <v>3.835112</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>5.752668</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>5.752668</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>5.752668</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>5.752668</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>5.752668</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>5.752668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3779,34 +3773,34 @@
         <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D79">
-        <v>161.610957</v>
+        <v>1316.83002</v>
       </c>
       <c r="E79">
-        <v>18.658248</v>
+        <v>1430.46568</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>230.10672</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>345.16008</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>345.16008</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>345.16008</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>345.16008</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>345.16008</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>345.16008</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3817,34 +3811,34 @@
         <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D80">
-        <v>1316.83002</v>
+        <v>1556.25366</v>
       </c>
       <c r="E80">
-        <v>1430.46568</v>
+        <v>1952.896624</v>
       </c>
       <c r="F80">
-        <v>230.10672</v>
+        <v>2105.476488</v>
       </c>
       <c r="G80">
-        <v>345.16008</v>
+        <v>1052.738244</v>
       </c>
       <c r="H80">
-        <v>345.16008</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>345.16008</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>345.16008</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>345.16008</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>345.16008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3855,34 +3849,34 @@
         <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D81">
-        <v>1556.25366</v>
+        <v>1173.175836</v>
       </c>
       <c r="E81">
-        <v>1952.896624</v>
+        <v>914.254152</v>
       </c>
       <c r="F81">
-        <v>2105.476488</v>
+        <v>651.9690400000001</v>
       </c>
       <c r="G81">
-        <v>1052.738244</v>
+        <v>977.9535600000003</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>977.9535600000003</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>977.9535600000003</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>977.9535600000003</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>977.9535600000003</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>977.9535600000003</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3893,71 +3887,33 @@
         <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D82">
-        <v>1173.175836</v>
+        <v>931.7899999999998</v>
       </c>
       <c r="E82">
-        <v>914.254152</v>
+        <v>763.401</v>
       </c>
       <c r="F82">
-        <v>651.9690400000001</v>
+        <v>571.756</v>
       </c>
       <c r="G82">
-        <v>977.9535600000003</v>
+        <v>405.2435013333334</v>
       </c>
       <c r="H82">
-        <v>977.9535600000003</v>
+        <v>225.604632</v>
       </c>
       <c r="I82">
-        <v>977.9535600000003</v>
+        <v>158.187935574316</v>
       </c>
       <c r="J82">
-        <v>977.9535600000003</v>
+        <v>108.1022195</v>
       </c>
       <c r="K82">
-        <v>977.9535600000003</v>
+        <v>52.94802587755103</v>
       </c>
       <c r="L82">
-        <v>977.9535600000003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" t="s">
-        <v>127</v>
-      </c>
-      <c r="D83">
-        <v>931.7900000000002</v>
-      </c>
-      <c r="E83">
-        <v>763.401</v>
-      </c>
-      <c r="F83">
-        <v>571.756</v>
-      </c>
-      <c r="G83">
-        <v>405.2435013333334</v>
-      </c>
-      <c r="H83">
-        <v>225.604632</v>
-      </c>
-      <c r="I83">
-        <v>158.2595685957447</v>
-      </c>
-      <c r="J83">
-        <v>108.1022195</v>
-      </c>
-      <c r="K83">
-        <v>52.94802587755103</v>
-      </c>
-      <c r="L83">
         <v>0</v>
       </c>
     </row>
